--- a/Data/Excel/Localization.xlsx
+++ b/Data/Excel/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>key</t>
   </si>
@@ -111,6 +111,54 @@
   </si>
   <si>
     <t>EndTurn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노비놈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 넘기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +546,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -530,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -541,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -552,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -596,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -618,7 +666,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -629,7 +677,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -640,7 +688,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -651,7 +699,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Localization.xlsx
+++ b/Data/Excel/Localization.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$18</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>key</t>
   </si>
@@ -159,6 +162,77 @@
   </si>
   <si>
     <t>턴 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_Surrender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surrender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_EffectVolume</t>
+  </si>
+  <si>
+    <t>L_BGMVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_Ask_Surrender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrender?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항복?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 볼륨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,17 +617,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,137 +647,208 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D18" xr:uid="{AF1BF21C-EBCD-480E-9B32-8D7EB1366D3E}">
+    <sortState ref="A2:D19">
+      <sortCondition ref="A1:A18"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Data/Excel/Localization.xlsx
+++ b/Data/Excel/Localization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Foundation\JGame\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\JGame\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>key</t>
   </si>
@@ -233,6 +233,30 @@
   </si>
   <si>
     <t>이펙트 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_Loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -843,6 +867,28 @@
         <v>42</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D18" xr:uid="{AF1BF21C-EBCD-480E-9B32-8D7EB1366D3E}">
     <sortState ref="A2:D19">
